--- a/Scrum/Proyect/Agile-user-story-template.xlsx
+++ b/Scrum/Proyect/Agile-user-story-template.xlsx
@@ -1,30 +1,124 @@
 
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisma\Documents\Visual Studio 2015\Projects\WindowsFormsApplication3\Scrum\Templates\2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="500"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
-</workbook>
+<file path=docProps\app.xml><?xml version="1.0" encoding="utf-8"?>
+<Properties xmlns="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <Application>Microsoft Excel</Application>
+  <DocSecurity>0</DocSecurity>
+  <ScaleCrop>false</ScaleCrop>
+  <HeadingPairs>
+    <vt:vector size="2" baseType="variant">
+      <vt:variant>
+        <vt:lpstr>Worksheets</vt:lpstr>
+      </vt:variant>
+      <vt:variant>
+        <vt:i4>1</vt:i4>
+      </vt:variant>
+    </vt:vector>
+  </HeadingPairs>
+  <TitlesOfParts>
+    <vt:vector size="1" baseType="lpstr">
+      <vt:lpstr>Sheet1</vt:lpstr>
+    </vt:vector>
+  </TitlesOfParts>
+  <Company/>
+  <LinksUpToDate>false</LinksUpToDate>
+  <SharedDoc>false</SharedDoc>
+  <HyperlinksChanged>false</HyperlinksChanged>
+  <AppVersion>15.0300</AppVersion>
+</Properties>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<file path=docProps\core.xml><?xml version="1.0" encoding="utf-8"?>
+<cp:coreProperties xmlns:cp="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:dcmitype="http://purl.org/dc/dcmitype/" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <dc:creator>Emily Esposito</dc:creator>
+  <cp:lastModifiedBy>Luis Matamoros Araya</cp:lastModifiedBy>
+  <dcterms:created xsi:type="dcterms:W3CDTF">2016-02-09T22:29:41Z</dcterms:created>
+  <dcterms:modified xsi:type="dcterms:W3CDTF">2017-08-18T20:56:54Z</dcterms:modified>
+</cp:coreProperties>
+</file>
+
+<file path=xl\drawings\drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1384301</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>154802</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3568700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>162521</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8890001" y="154802"/>
+          <a:ext cx="2184399" cy="490319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2455035</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="8775700"/>
+          <a:ext cx="13897735" cy="3251200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl\sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0">
   <si>
     <r>
       <rPr>
@@ -63,9 +157,6 @@
     </r>
   </si>
   <si>
-    <t>User Story ID</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -87,43 +178,10 @@
       <t>&lt;perform some task&gt;</t>
     </r>
   </si>
-  <si>
-    <t>Agile User Story Template</t>
-  </si>
-  <si>
-    <t>Track Agile User Stories in Smartsheet</t>
-  </si>
-  <si>
-    <t>View a 2 lines report of game</t>
-  </si>
-  <si>
-    <t>have useful stats</t>
-  </si>
-  <si>
-    <t>Aposter</t>
-  </si>
-  <si>
-    <t>View a series report ordered by day</t>
-  </si>
-  <si>
-    <t>have important info easily on hand</t>
-  </si>
-  <si>
-    <t>Order the series by sheets depending of the start day</t>
-  </si>
-  <si>
-    <t>have more order on the today and upcoming serie games</t>
-  </si>
-  <si>
-    <t>Have info from MLB and Covers on my DB</t>
-  </si>
-  <si>
-    <t>access easily important data</t>
-  </si>
 </sst>
 </file>
 
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -266,88 +324,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1384301</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>154802</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3568700</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>162521</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8890001" y="154802"/>
-          <a:ext cx="2184399" cy="490319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2455035</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="419100" y="8775700"/>
-          <a:ext cx="13897735" cy="3251200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\theme\theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -667,7 +644,31 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisma\Documents\Visual Studio 2015\Projects\WindowsFormsApplication3\Scrum\Templates\2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="500"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="152511" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
+</workbook>
+</file>
+
+<file path=xl\worksheets\sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L72"/>
   <sheetViews>
@@ -699,8 +700,10 @@
       <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>4</v>
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>Agile User Story Template</t>
+        </is>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -743,14 +746,16 @@
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>User Story ID</t>
+        </is>
       </c>
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>1</v>
@@ -768,14 +773,20 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Aposter</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>View a 2 lines report of game</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>have useful stats</t>
+        </is>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -790,14 +801,20 @@
       <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Aposter</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>View a series report ordered by day</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>have important info easily on hand</t>
+        </is>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -812,14 +829,20 @@
       <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Aposter</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Order the series by sheets depending of the start day</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>have more order on the today and upcoming serie games</t>
+        </is>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -834,14 +857,20 @@
       <c r="A9" s="2">
         <v>4</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Aposter</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Have info from MLB and Covers on my DB</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>access easily important data</t>
+        </is>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1119,8 +1148,10 @@
       <c r="L28" s="5"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>5</v>
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>Track Agile User Stories in Smartsheet</t>
+        </is>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
